--- a/logs/rag_results_log.xlsx
+++ b/logs/rag_results_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1175,6 +1175,236 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-07-24 17:35:27</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>國防相關的職缺有哪些</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>【誠徵博士後研究員】臺北醫學大學代謝與肥胖科學研究所林雅婷老師實驗室</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://www.nstc.gov.tw/folksonomy/detail/b9acd095-8dde-4fe5-91c1-d91b1cebc8b0?l=ch</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>有參考性相關資料</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>all-MiniLM-L6-v2</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>300</v>
+      </c>
+      <c r="I17" t="n">
+        <v>30</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>hybrid_chunking</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-07-24 17:35:27</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>國防相關的職缺有哪些</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>義大醫院醫研部誠徵碩士級研究技術員</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://www.nstc.gov.tw/folksonomy/detail/a0478e68-0991-42a7-a7d6-3779880333f8?l=ch</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>具有組織染色相關訓練</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>all-MiniLM-L6-v2</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>300</v>
+      </c>
+      <c r="I18" t="n">
+        <v>30</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>hybrid_chunking</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-07-24 17:35:27</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>國防相關的職缺有哪些</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>【國立中央大學 應用地質研究所】誠徵 理工背景 研究計畫助理</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://www.nstc.gov.tw/folksonomy/detail/f6f55778-1464-471e-8d9b-454b628ae816?l=ch</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>無相關經驗可，具有學習意願</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>all-MiniLM-L6-v2</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>300</v>
+      </c>
+      <c r="I19" t="n">
+        <v>30</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>hybrid_chunking</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-07-24 17:35:27</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>國防相關的職缺有哪些</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>中國醫藥大學醫學系微免學科誠徵助理教授(含)以上教師1名</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://www.nstc.gov.tw/folksonomy/detail/b7244de0-c1b9-4c65-baad-fb398fc71faa?l=ch</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>具國內外微生物及免疫學、或感染症研究，相關研究所畢業。</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>all-MiniLM-L6-v2</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>300</v>
+      </c>
+      <c r="I20" t="n">
+        <v>30</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>hybrid_chunking</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-07-24 17:35:27</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>國防相關的職缺有哪些</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>國立中興大學水土保持學系謝平城教授徵求專任研究助理</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>https://www.nstc.gov.tw/folksonomy/detail/37a3e393-0a91-4ebc-ab8f-51ba1479df67?l=ch</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>國科會計畫報告撰寫</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>all-MiniLM-L6-v2</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>300</v>
+      </c>
+      <c r="I21" t="n">
+        <v>30</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>hybrid_chunking</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
